--- a/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,66</t>
+          <t>-18,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,11</t>
+          <t>-29,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-26,62</t>
+          <t>-26,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,11</t>
+          <t>-16,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-75,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-85,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-89,45%</t>
+          <t>-79,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-91,04%</t>
+          <t>-86,28%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-88,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-78,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,44; -10,6</t>
+          <t>-27,34; -10,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,12; -20,22</t>
+          <t>-37,23; -22,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,99; -19,71</t>
+          <t>-33,04; -20,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,96; -11,36</t>
+          <t>-25,77; -6,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,65; -55,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,34; -77,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-94,55; -81,73</t>
+          <t>-91,63; -60,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-96,31; -79,34</t>
+          <t>-92,41; -75,78</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-93,84; -80,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-91,18; -50,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-13,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,18</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-65,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-68,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-72,01%</t>
+          <t>-68,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,52%</t>
+          <t>-71,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-71,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-61,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -8,75</t>
+          <t>-18,25; -8,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -6,95</t>
+          <t>-15,65; -7,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -7,97</t>
+          <t>-14,38; -7,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -5,26</t>
+          <t>-14,31; -4,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,64; -52,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,81; -53,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,02; -59,25</t>
+          <t>-79,63; -48,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,71; -48,37</t>
+          <t>-82,57; -55,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-80,61; -57,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,58; -35,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>-16,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-13,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-71,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-54,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-74,27%</t>
+          <t>-72,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-69,32%</t>
+          <t>-55,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-73,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-33,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -8,73</t>
+          <t>-23,45; -9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -4,67</t>
+          <t>-15,08; -5,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -9,35</t>
+          <t>-17,65; -9,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; -2,59</t>
+          <t>-9,36; 0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,91; -52,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,02; -33,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,09; -60,09</t>
+          <t>-84,35; -53,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,44; -33,14</t>
+          <t>-70,04; -36,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-82,95; -60,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-57,01; 7,96</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,33</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,55</t>
+          <t>-17,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-69,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-71,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-78,67%</t>
+          <t>-67,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-78,43%</t>
+          <t>-66,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-85,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -10,7</t>
+          <t>-18,45; -8,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -11,05</t>
+          <t>-12,38; -4,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,67; -13,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -8,33</t>
+          <t>-22,93; -12,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,21; -60,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,67; -64,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,58; -72,56</t>
+          <t>-78,18; -50,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,31; -69,25</t>
+          <t>-82,16; -42,89</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-92,1; -71,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-14,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-13,14</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-14,87</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-11,68</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-70,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-70,69%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-77,75%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-67,64%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; -11,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; -10,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; -12,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; -9,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-76,52; -62,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-76,89; -63,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-82,66; -71,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-75,73; -57,92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-18,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-29,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-26,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-16,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-79,96%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-86,28%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-88,58%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-78,61%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-18.0488181111185</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-31.10921167536402</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-26.63320868355614</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-16.41315601368122</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.8053901912884482</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.871300264252817</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.8910413425021172</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.7886761448734526</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,34; -10,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-37,23; -22,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,04; -20,26</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,77; -6,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-91,63; -60,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-92,41; -75,78</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-93,84; -80,8</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-91,18; -50,8</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.946805147824</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-38.75080690795119</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-33.51128162399439</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.87428290321666</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.9207381160130309</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9294238736844566</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.9414599154213118</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.9155398202986753</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-10.62315396002883</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-23.61171457088374</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-20.75191302992582</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-6.842749000083982</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>-0.6116406362590922</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.7702177523811947</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.8148201837131005</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.5110763083200547</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-13,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-68,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-71,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-71,18%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-61,79%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,25; -8,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; -7,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; -7,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,31; -4,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-79,63; -48,3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,57; -55,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-80,61; -57,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-78,58; -35,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-13.89708925398126</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.5224794421664</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-11.1470941580303</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.712746117687434</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.6950267394263204</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7148948111127484</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.7239264466369446</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.6237824583339768</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-16,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-72,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-55,82%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-73,45%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-33,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.8994396589826</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.72912082001785</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.81745942347563</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-14.98166702024291</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.8045772124175886</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8224544231097981</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8147353005837441</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.78731014288306</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; -9,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; -5,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,65; -9,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,36; 0,69</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-84,35; -53,93</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-70,04; -36,48</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-82,95; -60,86</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-57,01; 7,96</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-8.928944125128787</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-7.716897136492652</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-7.8565889021326</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.744098186080114</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>-0.5082033123351644</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.5459496723185668</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.5982594888390261</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.3540699090864632</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-13,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-17,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-67,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-66,83%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-85,35%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-15.70471523817571</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.07308884479621</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.46590291400335</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.628943547545298</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.7286988459559727</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5553554835484703</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7420748872047775</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.348795683817045</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,45; -8,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,38; -4,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-22,93; -12,55</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-78,18; -50,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-82,16; -42,89</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-92,1; -71,68</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.07767749944169</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.92902857165071</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.84012775440423</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.574409796905378</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8504420590910873</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7033114046633433</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8346842557341223</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5824270357565788</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-9.598023697460528</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5.591017611288081</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.533183143480427</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4900819880015744</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.5558854787273213</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.3614331830226625</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.6190711746722309</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.05871929137856197</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-14,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-13,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-14,87</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-70,13%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-70,69%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-77,75%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-67,64%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; -11,81</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,67; -10,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; -12,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,56; -9,0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-76,52; -62,66</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-76,89; -63,65</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-82,66; -71,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-75,73; -57,92</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-15.27720495440578</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-14.99796192836191</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-15.1840985423729</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.314533735068723</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.7289337327491175</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.7228791708914342</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.785861944742417</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.5911703411291802</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-19.054740320403</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-17.9423034864934</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.05891046327075</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.6809937561022</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.7999748298585997</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7840415897557992</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.8334397762574711</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7029846031960275</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-11.78046151373993</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-12.23116653238116</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-12.90926659272427</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-6.200680570979216</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.6350051992583124</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.6468127677264919</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.7292053716443735</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.4470820124290882</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
